--- a/data_processing/spark/Q&A_spark.xlsx
+++ b/data_processing/spark/Q&A_spark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trann\Documents\GitHub\Learn_To_Be_Data_Engineer\data_processing\spark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6618DFEA-0C3F-427B-A653-DE1106546B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782042CB-4E38-4479-91EE-64CF85C6770D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Question</t>
   </si>
@@ -56,10 +56,36 @@
   <si>
     <t>Apache Spark is an open-source, distributed computing system designed for big data processing and analytics. It provides an easy-to-use programming model and supports a wide range of applications, including batch processing, stream processing, machine learning, and graph processing. 
 Key Features of Apache Spark:
-    Speed: Spark performs in-memory computations, making it much faster than traditional big data processing tools.
-    Ease of Use: It supports APIs in multiple programming languages, including Python, Scala, Java, and R.
-    Scalability: Spark is capable of running on a cluster of thousands of machines and can process petabytes of data.
-    Multimodal: It includes libraries for SQL (Spark SQL), machine learning (MLlib), graph processing (GraphX), and stream processing (Spark Streaming).</t>
+  - Speed: Spark performs in-memory computations, making it much faster than traditional big data processing tools.
+  - Ease of Use: It supports APIs in multiple programming languages, including Python, Scala, Java, and R.
+  - Scalability: Spark is capable of running on a cluster of thousands of machines and can process petabytes of data.
+  - Multimodal: It includes libraries for SQL (Spark SQL), machine learning (MLlib), graph processing (GraphX), and stream processing (Spark Streaming).</t>
+  </si>
+  <si>
+    <t>Apache Spark follows a master-slave architecture with the following key components:
+  - Driver Program:
+      + The driver program is the entry point for the Spark application.
+      + It defines the main logic of the application and initiates the Spark context.
+      + The driver converts user-defined transformations and actions into a Directed Acyclic Graph (DAG) and schedules them for execution.
+  - Cluster Manager:
+      + Responsible for resource allocation and managing worker nodes.
+      + Spark supports cluster managers such as Spark Standalone, Apache Mesos, Hadoop YARN, or Kubernetes.
+  - Executors:
+      + Executors are worker processes running on cluster nodes.
+      + They are responsible for executing tasks assigned by the driver and storing intermediate data in memory or disk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - RDDs are the fundamental data structure in Spark. They are immutable, distributed collections of objects that can be processed in parallel across a cluster. RDDs support two types of operations:
+Transformations: Lazy operations (e.g., map, filter) applied to RDDs to produce new RDDs; Actions: Trigger execution to return a result (e.g., count, collect).
+  - A partition is a logical division of data in an RDD (Resilient Distributed Dataset), DataFrame, or Dataset. It is the smallest unit of parallelism in Spark; each partition is processed independently by a task on a node in the cluster. Partitions determine how the data is distributed across the nodes in the cluster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Transformation là các thao tác chuyển đổi dữ liệu, áp dụng trên RDD/ DataFrame/ Dataset để tạo ra một RDD/DataFrame/Dataset mới. Transformation là lazy (lười biếng), tức là chúng không thực thi ngay lập tức mà chỉ tạo ra một DAG (Directed Acyclic Graph) mô tả chuỗi các thao tác cần thực hiện.
+  - Action là các thao tác kích hoạt việc thực thi thực tế trên RDD/DataFrame/Dataset. Khi một Action được gọi, Spark thực thi tất cả các Transformation đã được định nghĩa trước đó trong DAG và trả về kết quả cho driver hoặc lưu kết quả vào một tệp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Shuffle dữ liệu trong Spark là một quá trình quan trọng trong hệ thống Apache Spark, liên quan đến việc trao đổi dữ liệu giữa các node trong cluster. Khi một ứng dụng Spark thực hiện một số thao tác như groupByKey, reduceByKey, hoặc join, dữ liệu từ các partition khác nhau cần được sắp xếp lại và phân phối lại giữa các node để đảm bảo các bản ghi liên quan nằm trong cùng một partition. Đây chính là quá trình shuffle.
+  - Quá trình Shuffle diễn ra thế nào ? Tại sao Shuffle tốn kém ? Cách giảm thiểu chi phí Shuffle</t>
   </si>
 </sst>
 </file>
@@ -109,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -119,6 +145,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,45 +457,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
